--- a/Results/Results_BTCUSDT_horizon5.xlsx
+++ b/Results/Results_BTCUSDT_horizon5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -585,7 +585,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.43 (0.19)</t>
+          <t>0.43 (0.20)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.17 (0.09)</t>
+          <t>0.18 (0.10)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>46.77 (5.85)</t>
+          <t>46.31 (6.40)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -615,26 +615,26 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0.36081475 0.30284697 0.65161133 0.44695229 0.57848256 0.84465109
- 0.20410449 0.2620057  0.28458848 0.32796034]</t>
+          <t>[0.36462746 0.26431374 0.64094644 0.51659773 0.57848256 0.85153017
+ 0.20410449 0.2620057  0.28458848 0.32532142]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[1.37398599 1.66125651 2.65423319 1.42475724 1.82095179 3.54810027
- 0.64356545 0.89738058 1.07027755 1.06860551]</t>
+          <t>[1.38850481 1.4498838  2.61079146 1.64676718 1.82095179 3.576997
+ 0.64356545 0.89738058 1.07027755 1.06000701]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[0.23652914 0.03965287 0.14642971 0.19177884 0.33250314 0.3338084
- 0.09517856 0.11721139 0.12992696 0.10895367]</t>
+          <t>[0.23780917 0.03443589 0.14356807 0.26409088 0.33250314 0.33685207
+ 0.09517856 0.11721139 0.12992696 0.10732666]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[46.15384615 49.23076923 43.07692308 40.         38.46153846 46.15384615
- 60.         46.15384615 46.15384615 52.30769231]</t>
+          <t>[41.53846154 49.23076923 43.07692308 38.46153846 38.46153846 46.15384615
+ 60.         46.15384615 46.15384615 53.84615385]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Regression Tree &amp; 0.43 $\pm$ 0.19 &amp; 1.62 $\pm$ 0.84 &amp; 0.17 $\pm$ 9.45 &amp; 46.77 $\pm$ 5.85 &amp; "-"</t>
+          <t>Regression Tree &amp; 0.43 $\pm$ 0.20 &amp; 1.62 $\pm$ 0.84 &amp; 0.18 $\pm$ 9.99 &amp; 46.31 $\pm$ 6.40 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -659,12 +659,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.44 (0.22)</t>
+          <t>0.43 (0.22)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.64 (0.91)</t>
+          <t>1.63 (0.91)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>50.31 (5.29)</t>
+          <t>51.54 (5.51)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -684,31 +684,31 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>max\_depth: 2, max\_features: 2, n\_estimators: 50 \\</t>
+          <t>max\_depth: 2, max\_features: 2, n\_estimators: 150 \\</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.34389684 0.24159434 0.69629714 0.49630081 0.61302122 0.88276439
- 0.20695946 0.22211552 0.29229776 0.37887507]</t>
+          <t>[0.34586943 0.23193716 0.69493333 0.49496916 0.61309473 0.8758707
+ 0.19362106 0.22032865 0.28519811 0.38613843]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[1.30956242 1.32525734 2.83625359 1.58206636 1.92967284 3.70820166
- 0.65256749 0.76075501 1.09927054 1.2345029 ]</t>
+          <t>[1.31707406 1.27228323 2.83069834 1.57782141 1.92990422 3.67924356
+ 0.61050994 0.75463493 1.07257024 1.25816937]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.2241788  0.02890546 0.15827447 0.22183579 0.37408677 0.34955798
- 0.10980484 0.10017385 0.11116844 0.10960485]</t>
+          <t>[0.22500654 0.02758895 0.15801624 0.21953642 0.3800402  0.34692649
+ 0.09993759 0.10107658 0.11553881 0.11258668]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[50.76923077 52.30769231 41.53846154 50.76923077 52.30769231 60.
- 56.92307692 46.15384615 44.61538462 47.69230769]</t>
+          <t>[56.92307692 52.30769231 44.61538462 56.92307692 55.38461538 56.92307692
+ 50.76923077 47.69230769 40.         53.84615385]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Random Forest &amp; 0.44 $\pm$ 0.22 &amp; 1.64 $\pm$ 0.91 &amp; 0.18 $\pm$ 10.70 &amp; 50.31 $\pm$ 5.29 &amp; "-"</t>
+          <t>Random Forest &amp; 0.43 $\pm$ 0.22 &amp; 1.63 $\pm$ 0.91 &amp; 0.18 $\pm$ 10.79 &amp; 51.54 $\pm$ 5.51 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -837,19 +837,19 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0.413844   0.8144076  0.94499775 0.61843093 0.89622451 1.79012696
+          <t>[0.413844   0.81440759 0.94499774 0.61843098 0.89623006 1.79018404
  0.9437067  0.80867379 1.0538413  1.29813021]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[1.57592185 4.46740449 3.84929521 1.97138255 2.82114227 7.51973214
+          <t>[1.57592185 4.46740447 3.8492952  1.97138273 2.82115975 7.51997191
  2.97561809 2.76974182 3.96327595 4.22974651]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.26972996 0.12487113 0.22314786 0.32061844 0.62569672 0.74333926
+          <t>[0.26972996 0.12487113 0.22314786 0.32061848 0.62570161 0.74336366
  0.55959097 0.37933526 0.49955084 0.48371658]</t>
         </is>
       </c>
@@ -881,22 +881,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.42 (0.23)</t>
+          <t>0.73 (0.28)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.61 (0.97)</t>
+          <t>2.76 (1.25)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.17 (0.11)</t>
+          <t>0.31 (0.14)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>45.54 (4.57)</t>
+          <t>47.85 (5.03)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -906,31 +906,31 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>learning\_rate: 0.05, max\_depth: 2, max\_features: 2, n\_estimators: 50 \\</t>
+          <t>learning\_rate: 0.01, max\_depth: 2, max\_features: 2, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[0.3287239  0.26970287 0.66838591 0.45264674 0.60897717 0.92707446
- 0.18582913 0.188889   0.29491111 0.30851032]</t>
+          <t>[0.38666283 0.55437301 0.84427546 0.56199486 0.78104756 1.4302467
+ 0.60459411 0.49430386 0.73328364 0.93013991]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[1.25178372 1.47944568 2.72256172 1.44290953 1.91694293 3.89433365
- 0.58594107 0.64695277 1.10909878 1.0052308 ]</t>
+          <t>[1.47241572 3.04099384 3.43901931 1.79148038 2.45858742 6.00799402
+ 1.90635624 1.69301155 2.75772588 3.03070985]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.21209359 0.03321069 0.15146392 0.20000729 0.37444341 0.36956749
- 0.10057577 0.07409594 0.11838991 0.09183472]</t>
+          <t>[0.2507431  0.08217251 0.19712322 0.27664489 0.52751162 0.58852464
+ 0.33798349 0.21225691 0.33504964 0.33371371]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[43.07692308 40.         46.15384615 47.69230769 47.69230769 53.84615385
- 41.53846154 41.53846154 41.53846154 52.30769231]</t>
+          <t>[46.15384615 52.30769231 40.         47.69230769 44.61538462 58.46153846
+ 47.69230769 46.15384615 43.07692308 52.30769231]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>GBM \cite{friedman2001greedy} &amp; 0.42 $\pm$ 0.23 &amp; 1.61 $\pm$ 0.97 &amp; 0.17 $\pm$ 11.23 &amp; 45.54 $\pm$ 4.57 &amp; "-"</t>
+          <t>GBM \cite{friedman2001greedy} &amp; 0.73 $\pm$ 0.28 &amp; 2.76 $\pm$ 1.25 &amp; 0.31 $\pm$ 14.34 &amp; 47.85 $\pm$ 5.03 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.25 (0.13)</t>
+          <t>0.27 (0.17)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.00 (0.69)</t>
+          <t>1.06 (0.80)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>50.00 (5.93)</t>
+          <t>49.85 (5.68)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1133,26 +1133,26 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[0.29107878 0.42609817 0.56818214 0.19557348 0.15715804 0.2130999
- 0.18048275 0.16467462 0.15546755 0.14877646]</t>
+          <t>[0.29840331 0.42172772 0.70839354 0.20669175 0.1535022  0.21225797
+ 0.18403287 0.1650913  0.15638996 0.14910243]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[1.10843076 2.33734665 2.31439791 0.62343285 0.49470325 0.89516229
- 0.5690833  0.5640175  0.58468083 0.48476394]</t>
+          <t>[1.13632263 2.3133727  2.8855263  0.65887472 0.48319537 0.89162563
+ 0.58027726 0.56544465 0.58814983 0.48582606]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[0.18019629 0.05407941 0.12727478 0.09499292 0.09134998 0.07146462
- 0.09668772 0.06785507 0.06488455 0.04698466]</t>
+          <t>[0.1868027  0.05585264 0.16074404 0.10229392 0.08985689 0.07044746
+ 0.09771809 0.06803033 0.0651577  0.04676504]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[47.69230769 41.53846154 38.46153846 55.38461538 53.84615385 55.38461538
- 56.92307692 49.23076923 47.69230769 53.84615385]</t>
+          <t>[47.69230769 40.         41.53846154 53.84615385 53.84615385 56.92307692
+ 56.92307692 49.23076923 46.15384615 52.30769231]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MLP &amp; 0.25 $\pm$ 0.13 &amp; 1.00 $\pm$ 0.69 &amp; 0.09 $\pm$ 3.77 &amp; 50.00 $\pm$ 5.93 &amp; "-"</t>
+          <t>MLP &amp; 0.27 $\pm$ 0.17 &amp; 1.06 $\pm$ 0.80 &amp; 0.09 $\pm$ 4.35 &amp; 49.85 $\pm$ 5.68 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.24 (0.11)</t>
+          <t>0.26 (0.14)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.94 (0.51)</t>
+          <t>1.02 (0.65)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>52.31 (6.42)</t>
+          <t>52.15 (6.40)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1207,26 +1207,26 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[0.34507129 0.27563742 0.5014755  0.32839052 0.14453671 0.21831993
- 0.16366376 0.16478233 0.15768516 0.14948259]</t>
+          <t>[0.33669275 0.31451269 0.62619355 0.33253737 0.14416304 0.22256812
+ 0.16311489 0.16504519 0.15687117 0.1494727 ]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[1.31403475 1.51199945 2.0426792  1.04681593 0.45497374 0.91708994
- 0.51605106 0.56438644 0.59302079 0.48706476]</t>
+          <t>[1.28212915 1.7252484  2.55069798 1.0600349  0.45379752 0.93493515
+ 0.5143204  0.56528674 0.58995955 0.48703251]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.18931465 0.03621814 0.10804459 0.14549489 0.08511084 0.0736994
- 0.088144   0.06817376 0.0662795  0.04643487]</t>
+          <t>[0.18114193 0.04170942 0.14189016 0.14824486 0.08514737 0.07594372
+ 0.08785309 0.07024241 0.06565991 0.04602026]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[47.69230769 60.         58.46153846 40.         60.         55.38461538
- 53.84615385 49.23076923 44.61538462 53.84615385]</t>
+          <t>[47.69230769 60.         58.46153846 40.         60.         52.30769231
+ 56.92307692 47.69230769 46.15384615 52.30769231]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>CNN &amp; 0.24 $\pm$ 0.11 &amp; 0.94 $\pm$ 0.51 &amp; 0.09 $\pm$ 4.40 &amp; 52.31 $\pm$ 6.42 &amp; "-"</t>
+          <t>CNN &amp; 0.26 $\pm$ 0.14 &amp; 1.02 $\pm$ 0.65 &amp; 0.09 $\pm$ 4.44 &amp; 52.15 $\pm$ 6.40 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.63 (1.69)</t>
+          <t>3.62 (1.69)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>46.62 (6.00)</t>
+          <t>46.31 (6.17)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1281,25 +1281,25 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.26060739 0.82811275 0.94053478 0.61707839 0.89604584 1.79891922
- 0.96834262 0.83430302 1.14315903 1.35778349]</t>
+          <t>[0.26060905 0.83115394 0.94304873 0.61872324 0.896355   1.79738606
+ 0.96801981 0.83427733 1.09081889 1.35823552]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[0.99239539 4.54258366 3.83111603 1.96707106 2.82057986 7.55666555
- 3.05329803 2.85752301 4.29918117 4.42411704]</t>
+          <t>[0.99240172 4.55926597 3.84135623 1.97231437 2.82155303 7.55022525
+ 3.05228018 2.85743501 4.10234091 4.4255899 ]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[0.14733548 0.12709665 0.22200167 0.31956413 0.62545563 0.74701989
- 0.57507533 0.3919489  0.54462354 0.50625939]</t>
+          <t>[0.14755495 0.12758987 0.22264847 0.32085139 0.62572936 0.74636269
+ 0.57484512 0.39193444 0.51745227 0.50644177]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[44.61538462 47.69230769 43.07692308 40.         38.46153846 46.15384615
+          <t>[41.53846154 47.69230769 43.07692308 40.         38.46153846 46.15384615
  60.         46.15384615 46.15384615 53.84615385]</t>
         </is>
       </c>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>RNN &amp; 0.96 $\pm$ 0.39 &amp; 3.63 $\pm$ 1.69 &amp; 0.42 $\pm$ 20.16 &amp; 46.62 $\pm$ 6.00 &amp; "-"</t>
+          <t>RNN &amp; 0.96 $\pm$ 0.39 &amp; 3.62 $\pm$ 1.69 &amp; 0.42 $\pm$ 19.98 &amp; 46.31 $\pm$ 6.17 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1355,20 +1355,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[0.26060983 0.8018907  0.95166913 0.61911733 0.89678975 1.79919181
- 0.96771207 0.83375017 1.09070099 1.35752292]</t>
+          <t>[0.26060772 0.81074278 0.94217321 0.61713983 0.89643191 1.79812772
+ 0.96822768 0.83416452 1.09066761 1.35799567]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[0.9924047  4.39874352 3.87647001 1.9735706  2.82292154 7.55781059
- 3.05130983 2.85562947 4.10189749 4.423268  ]</t>
+          <t>[0.99239665 4.44730127 3.83778993 1.96726691 2.82179515 7.55334069
+ 3.0529356  2.85704865 4.10177197 4.42480839]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[0.14701355 0.12284002 0.22486542 0.32115963 0.62611426 0.74713674
- 0.57462565 0.39163754 0.51739097 0.50615425]</t>
+          <t>[0.14742129 0.12427777 0.22242322 0.31961223 0.62579745 0.74668061
+ 0.57499336 0.39187091 0.51737362 0.506345  ]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1399,22 +1399,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.25 (0.74)</t>
+          <t>1.41 (0.72)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.06 (4.28)</t>
+          <t>5.65 (4.13)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.47 (0.14)</t>
+          <t>0.56 (0.15)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>45.38 (6.35)</t>
+          <t>47.69 (5.96)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1429,26 +1429,26 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[0.49984571 3.03273604 2.19920792 1.0094176  1.08114733 0.91373714
- 0.69176417 0.83252235 0.946829   1.24307457]</t>
+          <t>[0.52691256 3.01589049 2.22325389 1.01309729 1.07200242 1.38333981
+ 1.23809292 0.80883396 0.95706572 1.89963378]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[ 1.90341718 16.63596788  8.95811715  3.21773726  3.40324372  3.83830797
-  2.1812137   2.85142412  3.56082514  4.05035662]</t>
+          <t>[ 2.00648802 16.5435622   9.05606451  3.2294671   3.37445731  5.81095369
+  3.9038524   2.77029039  3.59932328  6.1896482 ]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[0.26652446 0.47835384 0.53942875 0.60850461 0.78740839 0.35272624
- 0.38529109 0.40309102 0.4487769  0.46972284]</t>
+          <t>[0.28678863 0.47568276 0.54544141 0.61111909 0.77948163 0.5711421
+ 0.76502716 0.40481832 0.44989869 0.72325705]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[41.53846154 47.69230769 43.07692308 40.         38.46153846 52.30769231
- 52.30769231 44.61538462 36.92307692 56.92307692]</t>
+          <t>[46.15384615 47.69230769 43.07692308 40.         41.53846154 52.30769231
+ 60.         43.07692308 49.23076923 53.84615385]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>GRU &amp; 1.25 $\pm$ 0.74 &amp; 5.06 $\pm$ 4.28 &amp; 0.47 $\pm$ 13.85 &amp; 45.38 $\pm$ 6.35 &amp; "-"</t>
+          <t>GRU &amp; 1.41 $\pm$ 0.72 &amp; 5.65 $\pm$ 4.13 &amp; 0.56 $\pm$ 15.42 &amp; 47.69 $\pm$ 5.96 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1473,22 +1473,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.20 (0.05)</t>
+          <t>0.23 (0.08)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.74 (0.23)</t>
+          <t>0.88 (0.45)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.08 (0.05)</t>
+          <t>0.08 (0.03)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>50.00 (7.67)</t>
+          <t>52.00 (6.98)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1503,26 +1503,26 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[0.27777337 0.18684411 0.22366174 0.29175533 0.14312839 0.21674795
- 0.155791   0.16572083 0.15720244 0.14991771]</t>
+          <t>[0.28133627 0.3092208  0.41318383 0.27086287 0.1441757  0.21692922
+ 0.16242278 0.16583332 0.15708243 0.14956479]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[1.05776361 1.02492687 0.91104986 0.93003334 0.45054062 0.91048657
- 0.49122733 0.56760082 0.5912054  0.4884825 ]</t>
+          <t>[1.07133116 1.69621992 1.6830374  0.86343407 0.45383735 0.91124802
+ 0.51213812 0.5679861  0.59075406 0.4873326 ]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[0.15031935 0.02412799 0.04843751 0.1864406  0.08497088 0.07448615
- 0.08360331 0.06979136 0.0652014  0.04741767]</t>
+          <t>[0.15330448 0.04247639 0.08643683 0.12462852 0.08546074 0.07390739
+ 0.08866061 0.06919843 0.06528898 0.04678349]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[47.69230769 40.         55.38461538 38.46153846 63.07692308 53.84615385
- 55.38461538 44.61538462 44.61538462 56.92307692]</t>
+          <t>[47.69230769 60.         55.38461538 40.         61.53846154 53.84615385
+ 58.46153846 44.61538462 44.61538462 53.84615385]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>WaveNet &amp; 0.20 $\pm$ 0.05 &amp; 0.74 $\pm$ 0.23 &amp; 0.08 $\pm$ 4.66 &amp; 50.00 $\pm$ 7.67 &amp; "-"</t>
+          <t>WaveNet &amp; 0.23 $\pm$ 0.08 &amp; 0.88 $\pm$ 0.45 &amp; 0.08 $\pm$ 3.20 &amp; 52.00 $\pm$ 6.98 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1547,66 +1547,66 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.24 (0.08)</t>
+          <t>0.19 (0.04)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.92 (0.48)</t>
+          <t>0.73 (0.25)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.09 (0.03)</t>
+          <t>0.07 (0.02)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>50.77 (5.46)</t>
+          <t>51.85 (4.87)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4 (0)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>omega: 10000, r: 0.1 \\</t>
+          <t>omega: 500, r: 0.1 \\</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[0.21661053 0.40284115 0.24129079 0.20369944 0.1901435  0.20500025
- 0.18071302 0.3833122  0.16587535 0.17466953]</t>
+          <t>[0.20207732 0.22703133 0.26949659 0.17657057 0.14215285 0.21087469
+ 0.19182312 0.16338135 0.15539676 0.16269422]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[0.82485495 2.20977111 0.98285893 0.64933611 0.59853514 0.86113836
- 0.56980939 1.31286045 0.62382237 0.5691323 ]</t>
+          <t>[0.76951236 1.24537246 1.09775069 0.56285695 0.44746983 0.88581491
+ 0.60484083 0.55958801 0.58441461 0.5301127 ]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[0.1209781  0.05164242 0.04671306 0.10086998 0.09641702 0.06978576
- 0.09389198 0.15784243 0.06625402 0.05428753]</t>
+          <t>[0.11159062 0.02602751 0.05578502 0.08480562 0.08322986 0.0718513
+ 0.09910384 0.06574965 0.06400548 0.05092048]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[50.76923077 43.07692308 58.46153846 60.         46.15384615 52.30769231
- 43.07692308 49.23076923 50.76923077 53.84615385]</t>
+          <t>[58.46153846 50.76923077 52.30769231 60.         49.23076923 49.23076923
+ 50.76923077 41.53846154 52.30769231 53.84615385]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[4. 4. 4. 4. 4. 4. 4. 5. 5. 5.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>eTS &amp; 0.24 $\pm$ 0.08 &amp; 0.92 $\pm$ 0.48 &amp; 0.09 $\pm$ 3.34 &amp; 50.77 $\pm$ 5.46 &amp; 4 $\pm$ 0</t>
+          <t>eTS &amp; 0.19 $\pm$ 0.04 &amp; 0.73 $\pm$ 0.25 &amp; 0.07 $\pm$ 2.35 &amp; 51.85 $\pm$ 4.87 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1621,66 +1621,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.34 (0.18)</t>
+          <t>0.19 (0.04)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.35 (0.86)</t>
+          <t>0.73 (0.25)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.13 (0.06)</t>
+          <t>0.07 (0.02)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>48.31 (4.78)</t>
+          <t>51.85 (4.87)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>31 (18)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>omega: 50, r: 0.1 \\</t>
+          <t>omega: 500, r: 0.1 \\</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[0.35874914 0.51244247 0.74154344 0.38819952 0.36145101 0.38880752
- 0.18312869 0.18184416 0.15403727 0.1628369 ]</t>
+          <t>[0.20207732 0.22703133 0.26949659 0.17657057 0.14215285 0.21087469
+ 0.19182312 0.16338135 0.15539676 0.16269422]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[1.3661201  2.81098532 3.02055707 1.23747006 1.13777823 1.633252
- 0.57742627 0.62282392 0.57930185 0.53057759]</t>
+          <t>[0.76951236 1.24537246 1.09775069 0.56285695 0.44746983 0.88581491
+ 0.60484083 0.55958801 0.58441461 0.5301127 ]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[0.23226139 0.07378557 0.16770736 0.17290341 0.21959595 0.14179832
- 0.09903853 0.08612585 0.06228731 0.05126591]</t>
+          <t>[0.11159062 0.02602751 0.05578502 0.08480562 0.08322986 0.0718513
+ 0.09910384 0.06574965 0.06400548 0.05092048]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[44.61538462 55.38461538 40.         49.23076923 53.84615385 43.07692308
- 44.61538462 52.30769231 49.23076923 50.76923077]</t>
+          <t>[58.46153846 50.76923077 52.30769231 60.         49.23076923 49.23076923
+ 50.76923077 41.53846154 52.30769231 53.84615385]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[67. 34.  5. 62. 24. 23. 23. 23. 23. 23.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Simpl\_eTS &amp; 0.34 $\pm$ 0.18 &amp; 1.35 $\pm$ 0.86 &amp; 0.13 $\pm$ 6.22 &amp; 48.31 $\pm$ 4.78 &amp; 31 $\pm$ 18</t>
+          <t>Simpl\_eTS &amp; 0.19 $\pm$ 0.04 &amp; 0.73 $\pm$ 0.25 &amp; 0.07 $\pm$ 2.35 &amp; 51.85 $\pm$ 4.87 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1695,27 +1695,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.19 (0.04)</t>
+          <t>0.28 (0.18)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.74 (0.23)</t>
+          <t>1.10 (0.83)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.07 (0.03)</t>
+          <t>0.11 (0.07)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>49.69 (6.27)</t>
+          <t>49.23 (7.72)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3 (0)</t>
+          <t>6 (3)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1725,36 +1725,36 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[0.21622027 0.21394928 0.23718671 0.15591664 0.14232258 0.21662535
- 0.18226624 0.1642715  0.14529965 0.26547483]</t>
+          <t>[0.20746196 0.2790062  0.40770065 0.24160872 0.14813641 0.78550417
+ 0.19746226 0.2007245  0.16426346 0.18225498]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[0.82336884 1.17361132 0.96614165 0.49701808 0.44800409 0.90997157
- 0.57470688 0.56263681 0.54644148 0.86500663]</t>
+          <t>[0.79001711 1.53047881 1.66070254 0.77018013 0.4663049  3.29964361
+ 0.62262171 0.68748988 0.61776038 0.59384826]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[0.12231906 0.02452089 0.04535196 0.07526072 0.08355427 0.07445224
- 0.09400722 0.06470461 0.05787732 0.09136622]</t>
+          <t>[0.11365022 0.03808933 0.08793265 0.10959237 0.08962916 0.31009267
+ 0.11431442 0.09011535 0.06582548 0.05593241]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[46.15384615 43.07692308 55.38461538 61.53846154 56.92307692 52.30769231
- 44.61538462 41.53846154 46.15384615 49.23076923]</t>
+          <t>[46.15384615 43.07692308 58.46153846 56.92307692 50.76923077 64.61538462
+ 41.53846154 46.15384615 41.53846154 43.07692308]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[2. 3. 3. 3. 3. 3. 3. 3. 3. 4.]</t>
+          <t>[2. 3. 3. 4. 6. 8. 8. 9. 9. 9.]</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>exTS &amp; 0.19 $\pm$ 0.04 &amp; 0.74 $\pm$ 0.23 &amp; 0.07 $\pm$ 2.60 &amp; 49.69 $\pm$ 6.27 &amp; 3 $\pm$ 0</t>
+          <t>exTS &amp; 0.28 $\pm$ 0.18 &amp; 1.10 $\pm$ 0.83 &amp; 0.11 $\pm$ 7.17 &amp; 49.23 $\pm$ 7.72 &amp; 6 $\pm$ 3</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.55 (0.46)</t>
+          <t>0.45 (0.32)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.17 (1.91)</t>
+          <t>1.78 (1.43)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.25 (0.29)</t>
+          <t>0.17 (0.12)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>49.85 (6.35)</t>
+          <t>54.00 (5.94)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1794,41 +1794,41 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.001, lambda1: 0.001, r: 0.1, s: 10000 \\</t>
+          <t>alpha: 0.001, beta: 0.005, lambda1: 0.001, omega: 10000, sigma: 0.25 \\</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[1.65743615 0.62764515 0.41017695 0.22674726 0.21731992 1.15288041
- 0.52008698 0.32372596 0.20630665 0.15365147]</t>
+          <t>[0.31036526 0.5189371  0.73285971 0.21615353 0.37473556 1.26948278
+ 0.36846979 0.34738201 0.18386974 0.1746022 ]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[6.31153253 3.44292563 1.67078934 0.72280601 0.6840813  4.84286984
- 1.63989535 1.10877506 0.77587602 0.50064836]</t>
+          <t>[1.18187383 2.84661137 2.98518527 0.68903619 1.17959544 5.3326779
+ 1.16182853 1.18979801 0.69149551 0.5689129 ]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[1.04238909 0.0897691  0.08936593 0.10410202 0.11844789 0.43419855
- 0.32849353 0.13303723 0.08295511 0.0491789 ]</t>
+          <t>[0.18804165 0.07478206 0.1674609  0.10056177 0.19050506 0.47869407
+ 0.233995   0.13343669 0.07286892 0.05433651]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>[44.61538462 55.38461538 46.15384615 55.38461538 55.38461538 58.46153846
- 43.07692308 53.84615385 38.46153846 47.69230769]</t>
+          <t>[55.38461538 50.76923077 55.38461538 64.61538462 53.84615385 53.84615385
+ 41.53846154 52.30769231 50.76923077 61.53846154]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 2. 2. 2.]</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>ePL &amp; 0.55 $\pm$ 0.46 &amp; 2.17 $\pm$ 1.91 &amp; 0.25 $\pm$ 28.98 &amp; 49.85 $\pm$ 6.35 &amp; 1 $\pm$ 0</t>
+          <t>ePL &amp; 0.45 $\pm$ 0.32 &amp; 1.78 $\pm$ 1.43 &amp; 0.17 $\pm$ 11.75 &amp; 54.00 $\pm$ 5.94 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1843,66 +1843,66 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.40 (0.15)</t>
+          <t>0.30 (0.10)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.54 (0.72)</t>
+          <t>1.11 (0.41)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.15 (0.06)</t>
+          <t>0.12 (0.07)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>49.38 (6.05)</t>
+          <t>51.23 (8.46)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21 (16)</t>
+          <t>26 (19)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>alpha: 0.01, lambda1: 0.5, omega: 10000, sigma: 0.003, w: 10 \\</t>
+          <t>alpha: 0.001, lambda1: 0.5, omega: 10000, sigma: 0.003, w: 50 \\</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[0.48006294 0.45072883 0.73997059 0.44384281 0.45499932 0.42124752
- 0.2229204  0.36915623 0.21067071 0.2271022 ]</t>
+          <t>[0.19766445 0.29498636 0.3292606  0.2867937  0.52660818 0.41968778
+ 0.22555857 0.24295773 0.21837873 0.22323033]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[1.82808422 2.4724573  3.01415029 1.41484512 1.43225031 1.76952173
- 0.70289421 1.26437563 0.79228833 0.73997565]</t>
+          <t>[0.75270808 1.61813739 1.3411897  0.91421704 1.65766121 1.76296975
+ 0.71121266 0.83214045 0.82127658 0.72735979]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[0.24940598 0.06562594 0.16709816 0.16859737 0.26568288 0.14993951
- 0.13001426 0.15590459 0.08528274 0.07298054]</t>
+          <t>[0.10371024 0.03439868 0.07103024 0.11519808 0.30744094 0.14792927
+ 0.12930642 0.10563115 0.08832421 0.07000407]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[56.92307692 52.30769231 58.46153846 47.69230769 52.30769231 38.46153846
- 40.         49.23076923 49.23076923 49.23076923]</t>
+          <t>[63.07692308 61.53846154 52.30769231 52.30769231 56.92307692 38.46153846
+ 35.38461538 50.76923077 53.84615385 47.69230769]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[ 2.  6.  6.  7. 10. 22. 32. 41. 43. 45.]</t>
+          <t>[ 3.  7.  7. 10. 14. 27. 37. 47. 51. 53.]</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>eMG &amp; 0.40 $\pm$ 0.15 &amp; 1.54 $\pm$ 0.72 &amp; 0.15 $\pm$ 6.45 &amp; 49.38 $\pm$ 6.05 &amp; 21 $\pm$ 16</t>
+          <t>eMG &amp; 0.30 $\pm$ 0.10 &amp; 1.11 $\pm$ 0.41 &amp; 0.12 $\pm$ 7.05 &amp; 51.23 $\pm$ 8.46 &amp; 26 $\pm$ 19</t>
         </is>
       </c>
     </row>
@@ -1917,66 +1917,66 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.42 (0.31)</t>
+          <t>0.20 (0.04)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.64 (1.36)</t>
+          <t>0.76 (0.28)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.16 (0.13)</t>
+          <t>0.08 (0.03)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>53.54 (4.00)</t>
+          <t>51.85 (3.83)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2 (1)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>alpha: 0.01, beta: 0.01, e\_utility: 0.05, lambda1: 0.5, omega: 10000, pi: 0.5, sigma: 0.25 \\</t>
+          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 100, pi: 0.3, sigma: 0.1 \\</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[0.24752431 0.46713661 0.57098108 0.21664103 0.58651447 1.23024853
- 0.23999773 0.26372215 0.17219221 0.18307676]</t>
+          <t>[0.24137457 0.24089145 0.28692104 0.17823674 0.14283071 0.21180449
+ 0.19160927 0.16319155 0.15461067 0.16432052]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[0.94257491 2.56246162 2.3257989  0.69059023 1.84623468 5.16786779
- 0.75674103 0.90325947 0.64757877 0.5965259 ]</t>
+          <t>[0.91915664 1.32140166 1.16872638 0.56816821 0.44960359 0.8897207
+ 0.60416654 0.55893794 0.58145827 0.53541172]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[0.13027549 0.06764334 0.12839498 0.10087172 0.3373886  0.472256
- 0.13458698 0.10556788 0.07065439 0.05941231]</t>
+          <t>[0.14790406 0.02801542 0.06075879 0.0869787  0.08356626 0.07209902
+ 0.09825821 0.06547233 0.06354352 0.05153606]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[52.30769231 50.76923077 52.30769231 63.07692308 56.92307692 52.30769231
- 50.76923077 47.69230769 53.84615385 55.38461538]</t>
+          <t>[52.30769231 49.23076923 52.30769231 53.84615385 60.         52.30769231
+ 47.69230769 46.15384615 55.38461538 49.23076923]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 1. 2. 3. 3. 3.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>ePL+ &amp; 0.42 $\pm$ 0.31 &amp; 1.64 $\pm$ 1.36 &amp; 0.16 $\pm$ 12.83 &amp; 53.54 $\pm$ 4.00 &amp; 2 $\pm$ 1</t>
+          <t>ePL+ &amp; 0.20 $\pm$ 0.04 &amp; 0.76 $\pm$ 0.28 &amp; 0.08 $\pm$ 3.04 &amp; 51.85 $\pm$ 3.83 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1991,66 +1991,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.05 (1.01)</t>
+          <t>1.90 (2.11)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.85 (3.24)</t>
+          <t>6.97 (8.20)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.38 (0.48)</t>
+          <t>0.65 (0.82)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>47.23 (3.77)</t>
+          <t>52.62 (4.00)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>25 (9)</t>
+          <t>19 (1)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>alpha: 0.1, beta: 0.25, e\_utility: 0.03, lambda1: 1e-07, sigma: 1 \\</t>
+          <t>alpha: 0.05, beta: 0.25, e\_utility: 0.03, lambda1: 1e-07, sigma: 0.5 \\</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[0.39879548 1.10630904 0.81823433 0.99600078 3.98258205 1.14669676
- 0.6901665  0.53603935 0.42047645 0.45101684]</t>
+          <t>[0.33819538 0.54579449 0.95530121 0.90559857 5.09875559 6.70622094
+ 2.35269059 0.62369641 0.41430509 1.01497245]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[ 1.51861695  6.06861967  3.33294497  3.17496826 12.53640187  4.81689439
-  2.17617606  1.83595737  1.58132366  1.46956513]</t>
+          <t>[ 1.28785121  2.99393668  3.89126469  2.88679164 16.04990139 28.1706194
+  7.41830978  2.13618649  1.5581145   3.30712293]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[0.21961447 0.11047105 0.14850449 0.31022686 1.79215746 0.44680626
- 0.32087538 0.20148323 0.16327746 0.1268075 ]</t>
+          <t>[0.20319931 0.05953213 0.17222525 0.29716781 2.37901696 2.14312519
+ 0.63259845 0.24709598 0.15781763 0.24481534]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[49.23076923 50.76923077 44.61538462 40.         53.84615385 49.23076923
- 43.07692308 47.69230769 46.15384615 47.69230769]</t>
+          <t>[60.         56.92307692 49.23076923 49.23076923 49.23076923 56.92307692
+ 49.23076923 50.76923077 55.38461538 49.23076923]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[11. 12. 14. 21. 25. 34. 33. 33. 33. 33.]</t>
+          <t>[18. 20. 20. 19. 19. 19. 19. 19. 19. 19.]</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>ePL-KRLS-DISCO &amp; 1.05 $\pm$ 1.01 &amp; 3.85 $\pm$ 3.24 &amp; 0.38 $\pm$ 47.98 &amp; 47.23 $\pm$ 3.77 &amp; 25 $\pm$ 9</t>
+          <t>ePL-KRLS-DISCO &amp; 1.90 $\pm$ 2.11 &amp; 6.97 $\pm$ 8.20 &amp; 0.65 $\pm$ 81.79 &amp; 52.62 $\pm$ 4.00 &amp; 19 $\pm$ 1</t>
         </is>
       </c>
     </row>
@@ -2065,17 +2065,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.86 (0.34)</t>
+          <t>0.97 (0.37)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.29 (1.60)</t>
+          <t>3.63 (1.58)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.34 (0.14)</t>
+          <t>0.42 (0.19)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2095,20 +2095,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[0.25026166 0.98280688 1.2007628  0.71778459 0.80484683 1.42654519
- 0.62534714 0.51666662 0.85157731 1.18735035]</t>
+          <t>[0.37966277 0.74698468 0.95319477 0.65390817 0.89789492 1.78576079
+ 0.93255867 0.84976108 1.07680679 1.38451044]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[0.95299877 5.39115289 4.89111273 2.28809389 2.53350294 5.9924452
- 1.971793   1.76960493 3.20260352 3.86878831]</t>
+          <t>[1.44575943 4.09755844 3.88268447 2.08447396 2.82640042 7.50139132
+ 2.94046702 2.91046751 4.04964434 4.51120245]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[0.14822979 0.15043973 0.28722379 0.38562352 0.54136564 0.58419281
- 0.30641199 0.21440767 0.38866409 0.43065875]</t>
+          <t>[0.24188523 0.11224827 0.22440403 0.33348518 0.62647748 0.73948551
+ 0.52298016 0.40348803 0.5076945  0.51211402]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NMR &amp; 0.86 $\pm$ 0.34 &amp; 3.29 $\pm$ 1.60 &amp; 0.34 $\pm$ 14.32 &amp; 51.54 $\pm$ 5.34 &amp; 2 $\pm$ 0</t>
+          <t>NMR &amp; 0.97 $\pm$ 0.37 &amp; 3.63 $\pm$ 1.58 &amp; 0.42 $\pm$ 18.54 &amp; 51.54 $\pm$ 5.34 &amp; 2 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2139,22 +2139,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.21 (0.03)</t>
+          <t>0.19 (0.02)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.79 (0.23)</t>
+          <t>0.72 (0.19)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.08 (0.03)</t>
+          <t>0.07 (0.02)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>52.00 (5.45)</t>
+          <t>53.85 (7.08)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2164,31 +2164,31 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.96, rules: 1 \\</t>
+          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.98, rules: 1 \\</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[0.19614792 0.21504119 0.28173912 0.21384006 0.18591802 0.25522589
- 0.21153862 0.20211863 0.16859834 0.1664195 ]</t>
+          <t>[0.18447282 0.20886443 0.23308235 0.18871683 0.17575955 0.21079195
+ 0.19503571 0.17917299 0.15387368 0.17043449]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[0.74693312 1.17960098 1.14761866 0.68166151 0.58523413 1.07211966
- 0.66700613 0.69226482 0.63406299 0.54225092]</t>
+          <t>[0.70247426 1.14571858 0.9494232  0.60157578 0.55325723 0.88546738
+ 0.6149705  0.61367504 0.57868661 0.55533311]</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[0.10350405 0.02628304 0.06075368 0.09862199 0.10494454 0.09204721
- 0.11808525 0.08731624 0.06742983 0.053277  ]</t>
+          <t>[0.09227197 0.02562305 0.04600239 0.08871003 0.09857203 0.07236025
+ 0.09965409 0.08043199 0.06273933 0.05335097]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>[44.61538462 56.92307692 49.23076923 56.92307692 63.07692308 49.23076923
- 44.61538462 52.30769231 50.76923077 52.30769231]</t>
+          <t>[46.15384615 60.         58.46153846 63.07692308 64.61538462 53.84615385
+ 44.61538462 44.61538462 52.30769231 50.76923077]</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>NTSK-RLS &amp; 0.21 $\pm$ 0.03 &amp; 0.79 $\pm$ 0.23 &amp; 0.08 $\pm$ 2.70 &amp; 52.00 $\pm$ 5.45 &amp; 1 $\pm$ 0</t>
+          <t>NTSK-RLS &amp; 0.19 $\pm$ 0.02 &amp; 0.72 $\pm$ 0.19 &amp; 0.07 $\pm$ 2.34 &amp; 53.85 $\pm$ 7.08 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2213,66 +2213,66 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.19 (0.04)</t>
+          <t>0.20 (0.04)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.74 (0.29)</t>
+          <t>0.76 (0.24)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.07 (0.02)</t>
+          <t>0.08 (0.03)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>50.62 (4.79)</t>
+          <t>49.23 (4.51)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10 (2)</t>
+          <t>3 (0)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 13 \\</t>
+          <t>adaptive\_filter: wRLS, fuzzy\_operator: minmax, rules: 3 \\</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[0.20979118 0.24869726 0.27809429 0.17267516 0.14217816 0.21293801
- 0.1853078  0.16701625 0.15310027 0.15812973]</t>
+          <t>[0.21916153 0.22393836 0.26608757 0.1826133  0.23173846 0.22227575
+ 0.18183541 0.16290405 0.15426621 0.16275436]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[0.79888679 1.36422013 1.13277203 0.55043947 0.44754949 0.89448227
- 0.58429725 0.57203769 0.57577799 0.51524004]</t>
+          <t>[0.83456919 1.22840605 1.0838646  0.58211946 0.72946807 0.93370703
+ 0.57334841 0.55795323 0.58016284 0.53030865]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.11820676 0.03025537 0.05903036 0.08350843 0.0829863  0.07292498
- 0.09727568 0.06967161 0.06302766 0.05012865]</t>
+          <t>[0.13066791 0.02577157 0.05510381 0.0861718  0.12652775 0.07944119
+ 0.09572341 0.06690372 0.06369183 0.05110765]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[56.92307692 50.76923077 46.15384615 58.46153846 52.30769231 50.76923077
- 46.15384615 41.53846154 50.76923077 52.30769231]</t>
+          <t>[47.69230769 52.30769231 50.76923077 56.92307692 43.07692308 46.15384615
+ 49.23076923 41.53846154 50.76923077 53.84615385]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[ 7.  7.  7.  8. 10. 12. 11. 12. 12. 12.]</t>
+          <t>[3. 3. 3. 3. 3. 3. 3. 3. 3. 3.]</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>NTSK-wRLS &amp; 0.19 $\pm$ 0.04 &amp; 0.74 $\pm$ 0.29 &amp; 0.07 $\pm$ 2.34 &amp; 50.62 $\pm$ 4.79 &amp; 10 $\pm$ 2</t>
+          <t>NTSK-wRLS &amp; 0.20 $\pm$ 0.04 &amp; 0.76 $\pm$ 0.24 &amp; 0.08 $\pm$ 3.13 &amp; 49.23 $\pm$ 4.51 &amp; 3 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2287,22 +2287,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.71 (0.50)</t>
+          <t>0.56 (0.49)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.70 (2.08)</t>
+          <t>2.16 (2.03)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.26 (0.16)</t>
+          <t>0.20 (0.17)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>51.54 (6.46)</t>
+          <t>46.31 (4.43)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2312,31 +2312,31 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>error\_metric: MAE, fuzzy\_operator: minmax, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 19, sol\_per\_pop: 10 \\</t>
+          <t>error\_metric: MAE, fuzzy\_operator: max, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 19, sol\_per\_pop: 10 \\</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[0.18026699 0.36374359 1.78149846 0.59631656 0.70208218 1.40842071
- 0.37734486 0.18036211 0.62437297 0.8961582 ]</t>
+          <t>[0.21457366 0.31283584 1.53970781 0.73736007 0.69852052 1.37032742
+ 0.18336467 0.18188852 0.19320334 0.17195572]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[0.68645839 1.99530277 7.25664532 1.90088821 2.2100196  5.91631027
- 1.18981266 0.61774784 2.34813569 2.91998599]</t>
+          <t>[0.81709854 1.71605009 6.27175028 2.35049497 2.19880816 5.75629294
+ 0.57817033 0.62297584 0.72659721 0.5602898 ]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[0.09653293 0.04782952 0.39267887 0.23621859 0.43055867 0.56463701
- 0.18712125 0.08214567 0.27698093 0.31852454]</t>
+          <t>[0.11765077 0.04088101 0.32817209 0.28527287 0.41296475 0.53992532
+ 0.09776425 0.08484691 0.07940112 0.05335858]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[47.69230769 52.30769231 44.61538462 43.07692308 53.84615385 56.92307692
- 58.46153846 41.53846154 60.         56.92307692]</t>
+          <t>[52.30769231 52.30769231 38.46153846 49.23076923 46.15384615 44.61538462
+ 49.23076923 46.15384615 40.         44.61538462]</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>GEN-NMR &amp; 0.71 $\pm$ 0.50 &amp; 2.70 $\pm$ 2.08 &amp; 0.26 $\pm$ 15.89 &amp; 51.54 $\pm$ 6.46 &amp; 18 $\pm$ 3</t>
+          <t>GEN-NMR &amp; 0.56 $\pm$ 0.49 &amp; 2.16 $\pm$ 2.03 &amp; 0.20 $\pm$ 16.62 &amp; 46.31 $\pm$ 4.43 &amp; 18 $\pm$ 3</t>
         </is>
       </c>
     </row>
@@ -2366,17 +2366,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.74 (0.25)</t>
+          <t>0.71 (0.25)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.07 (0.03)</t>
+          <t>0.07 (0.02)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>50.62 (4.94)</t>
+          <t>50.77 (5.28)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2386,31 +2386,31 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, error\_metric: RMSE, fuzzy\_operator: minmax, lambda1: 0.99, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: RMSE, fuzzy\_operator: max, lambda1: 0.99, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[0.21220506 0.22810405 0.2708295  0.17619957 0.16074485 0.20964442
- 0.19034204 0.16202765 0.15378898 0.16677995]</t>
+          <t>[0.19750182 0.21803891 0.2709169  0.14171692 0.16179933 0.21132385
+ 0.17904619 0.16221299 0.15008263 0.16179341]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[0.80807885 1.25125682 1.1031801  0.56167431 0.50599385 0.88064697
- 0.6001708  0.55495154 0.57836809 0.54342538]</t>
+          <t>[0.7520888  1.19604482 1.10353609 0.4517534  0.50931316 0.88770168
+ 0.56455365 0.55558632 0.56442929 0.52717756]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[0.12147853 0.02655011 0.05649116 0.08414941 0.09135046 0.07194696
- 0.0974685  0.06710315 0.06251238 0.05304923]</t>
+          <t>[0.10599935 0.02626981 0.05629035 0.06674563 0.09224783 0.07277444
+ 0.09349607 0.06720817 0.06185648 0.0500445 ]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[43.07692308 55.38461538 53.84615385 55.38461538 53.84615385 49.23076923
- 52.30769231 44.61538462 55.38461538 43.07692308]</t>
+          <t>[41.53846154 53.84615385 52.30769231 53.84615385 55.38461538 41.53846154
+ 52.30769231 46.15384615 55.38461538 55.38461538]</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>GEN-NTSK-RLS &amp; 0.19 $\pm$ 0.04 &amp; 0.74 $\pm$ 0.25 &amp; 0.07 $\pm$ 2.53 &amp; 50.62 $\pm$ 4.94 &amp; 1 $\pm$ 0</t>
+          <t>GEN-NTSK-RLS &amp; 0.19 $\pm$ 0.04 &amp; 0.71 $\pm$ 0.25 &amp; 0.07 $\pm$ 2.22 &amp; 50.77 $\pm$ 5.28 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2435,66 +2435,66 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.27 (0.12)</t>
+          <t>0.20 (0.04)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.99 (0.41)</t>
+          <t>0.78 (0.26)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.12 (0.10)</t>
+          <t>0.08 (0.03)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>50.62 (5.26)</t>
+          <t>50.62 (5.77)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5 (0)</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 13 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: RMSE, fuzzy\_operator: prod, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 9, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[0.21554948 0.25237121 0.25467913 0.16163433 0.51624822 0.31920655
- 0.4640266  0.17032005 0.15104338 0.163085  ]</t>
+          <t>[0.21280621 0.23725169 0.25338878 0.23007895 0.17170405 0.26703299
+ 0.18619971 0.17815938 0.1531964  0.15800926]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[0.82081446 1.3843735  1.03739417 0.51524444 1.62505004 1.3408813
- 1.46313038 0.58335333 0.56804245 0.53138598]</t>
+          <t>[0.81036805 1.30143586 1.03213815 0.73342648 0.5404913  1.12171738
+ 0.58710954 0.61020338 0.57613949 0.51484753]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[0.12584161 0.02943999 0.05120851 0.07707987 0.36694944 0.12089066
- 0.22441089 0.07664298 0.06223677 0.04920537]</t>
+          <t>[0.12111974 0.0269801  0.04967103 0.10676872 0.09571236 0.09765626
+ 0.10309058 0.08232998 0.06342128 0.05036105]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[56.92307692 46.15384615 56.92307692 50.76923077 53.84615385 40.
- 55.38461538 47.69230769 52.30769231 46.15384615]</t>
+          <t>[55.38461538 49.23076923 53.84615385 63.07692308 41.53846154 50.76923077
+ 43.07692308 49.23076923 49.23076923 50.76923077]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[4. 4. 4. 4. 5. 5. 5. 5. 5. 5.]</t>
+          <t>[5. 6. 6. 6. 7. 9. 8. 9. 9. 9.]</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>GEN-NTSK-wRLS &amp; 0.27 $\pm$ 0.12 &amp; 0.99 $\pm$ 0.41 &amp; 0.12 $\pm$ 9.84 &amp; 50.62 $\pm$ 5.26 &amp; 5 $\pm$ 0</t>
+          <t>GEN-NTSK-wRLS &amp; 0.20 $\pm$ 0.04 &amp; 0.78 $\pm$ 0.26 &amp; 0.08 $\pm$ 2.90 &amp; 50.62 $\pm$ 5.77 &amp; 7 $\pm$ 1</t>
         </is>
       </c>
     </row>
@@ -2509,22 +2509,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.56 (0.46)</t>
+          <t>0.59 (0.45)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.17 (1.92)</t>
+          <t>2.34 (1.97)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.20 (0.14)</t>
+          <t>0.21 (0.14)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>50.15 (5.02)</t>
+          <t>49.54 (4.17)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2539,26 +2539,26 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[0.27748479 0.49291262 1.6723464  0.56837122 0.76889271 1.02466359
- 0.17444694 0.19662251 0.20769588 0.19297544]</t>
+          <t>[0.30075607 0.77880086 1.62297639 0.641483   0.76888831 1.02270661
+ 0.17026917 0.19026697 0.20482854 0.19290282]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[1.05666469 2.70385502 6.81203212 1.81180639 2.42032629 4.30427333
- 0.5500517  0.67344037 0.78110062 0.62877914]</t>
+          <t>[1.14528197 4.27208496 6.61093137 2.04486602 2.42031243 4.29605273
+ 0.5368787  0.6516724  0.77031713 0.62854251]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[0.17102941 0.06711171 0.37826978 0.22243291 0.42825828 0.40451773
- 0.09863159 0.09096719 0.08113872 0.05685128]</t>
+          <t>[0.19855254 0.11890717 0.35520151 0.32615082 0.42824797 0.40439691
+ 0.09546774 0.08570711 0.08020478 0.05679793]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[58.46153846 47.69230769 49.23076923 49.23076923 47.69230769 56.92307692
- 50.76923077 47.69230769 40.         53.84615385]</t>
+          <t>[49.23076923 52.30769231 47.69230769 55.38461538 47.69230769 56.92307692
+ 49.23076923 47.69230769 41.53846154 47.69230769]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>R-NMR &amp; 0.56 $\pm$ 0.46 &amp; 2.17 $\pm$ 1.92 &amp; 0.20 $\pm$ 14.19 &amp; 50.15 $\pm$ 5.02 &amp; "-"</t>
+          <t>R-NMR &amp; 0.59 $\pm$ 0.45 &amp; 2.34 $\pm$ 1.97 &amp; 0.21 $\pm$ 14.04 &amp; 49.54 $\pm$ 4.17 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2583,22 +2583,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.19 (0.04)</t>
+          <t>0.20 (0.05)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.73 (0.27)</t>
+          <t>0.77 (0.29)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.07 (0.03)</t>
+          <t>0.08 (0.04)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>50.15 (4.36)</t>
+          <t>51.08 (3.88)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2608,31 +2608,31 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 13 \\</t>
+          <t>combination: mean, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[0.21491745 0.2414715  0.26316366 0.16408064 0.13935699 0.21175271
- 0.18459723 0.16310666 0.15390561 0.16068144]</t>
+          <t>[0.26963573 0.23900895 0.27968382 0.18173512 0.14274087 0.21292971
+ 0.18959481 0.1623889  0.15233613 0.16274736]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[0.81840766 1.32458349 1.07195451 0.52304257 0.43866898 0.88950322
- 0.58205674 0.5586472  0.57880669 0.52355439]</t>
+          <t>[1.02677541 1.31107527 1.13924674 0.57932005 0.44932079 0.8944474
+ 0.5978147  0.55618882 0.5729042  0.53028584]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[0.12548745 0.02846775 0.05393104 0.0793309  0.08148384 0.07239262
- 0.09583717 0.06950425 0.06283959 0.05000119]</t>
+          <t>[0.17107034 0.02770266 0.05864104 0.08761209 0.08338429 0.07285975
+ 0.09630596 0.07004353 0.06269657 0.05122642]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>[56.92307692 52.30769231 50.76923077 53.84615385 49.23076923 43.07692308
- 44.61538462 49.23076923 55.38461538 46.15384615]</t>
+          <t>[55.38461538 49.23076923 49.23076923 56.92307692 53.84615385 50.76923077
+ 47.69230769 50.76923077 53.84615385 43.07692308]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>R-NTSK &amp; 0.19 $\pm$ 0.04 &amp; 0.73 $\pm$ 0.27 &amp; 0.07 $\pm$ 2.52 &amp; 50.15 $\pm$ 4.36 &amp; "-"</t>
+          <t>R-NTSK &amp; 0.20 $\pm$ 0.05 &amp; 0.77 $\pm$ 0.29 &amp; 0.08 $\pm$ 3.61 &amp; 51.08 $\pm$ 3.88 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2657,22 +2657,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.23 (0.06)</t>
+          <t>0.24 (0.07)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.89 (0.34)</t>
+          <t>0.92 (0.36)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.09 (0.04)</t>
+          <t>0.10 (0.04)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>51.23 (6.71)</t>
+          <t>51.08 (5.75)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2683,26 +2683,26 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[0.24693933 0.23778518 0.36068834 0.25585429 0.23521585 0.32101892
- 0.17150393 0.16867358 0.17877719 0.16418399]</t>
+          <t>[0.29027731 0.23420321 0.37836191 0.26880587 0.23304066 0.33091743
+ 0.17545611 0.16682574 0.17518728 0.15984397]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[0.94034728 1.30436232 1.46920551 0.81559097 0.74041423 1.34849446
- 0.54077204 0.57771412 0.67234351 0.53496685]</t>
+          <t>[1.10537874 1.28471355 1.54119592 0.85687695 0.73356715 1.39007484
+ 0.55323373 0.57138519 0.65884257 0.52082561]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[0.15467486 0.02778921 0.07906824 0.12140652 0.13488246 0.12022678
- 0.09288905 0.07367049 0.07164282 0.05271254]</t>
+          <t>[0.18690744 0.02722797 0.08305409 0.12663827 0.13483375 0.12449156
+ 0.09176034 0.07359866 0.07171371 0.05118839]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[63.07692308 52.30769231 55.38461538 56.92307692 52.30769231 46.15384615
- 46.15384615 36.92307692 52.30769231 50.76923077]</t>
+          <t>[58.46153846 47.69230769 52.30769231 58.46153846 56.92307692 50.76923077
+ 47.69230769 38.46153846 50.76923077 49.23076923]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>RF-NTSK &amp; 0.23 $\pm$ 0.06 &amp; 0.89 $\pm$ 0.34 &amp; 0.09 $\pm$ 3.74 &amp; 51.23 $\pm$ 6.71 &amp; "-"</t>
+          <t>RF-NTSK &amp; 0.24 $\pm$ 0.07 &amp; 0.92 $\pm$ 0.36 &amp; 0.10 $\pm$ 4.42 &amp; 51.08 $\pm$ 5.75 &amp; "-"</t>
         </is>
       </c>
     </row>
